--- a/URS/DbLayouts/L5-管理性作業/NegFinShareLog.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/NegFinShareLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDB367D-B2EA-4D3F-ABA8-9395ADB250D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D8010-A40D-41D6-A4F5-0C32C4795695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FindAllFinCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>債務人戶號</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -244,11 +240,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FindNewSeq</t>
+    <t>CustNo = , AND CaseSeq = ,AND Seq =</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo = , AND CaseSeq = ,AND Seq =</t>
+    <t>CustNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseSeq DESC,Seq DESC,FinCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findNewSeq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFinCodeAll</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +859,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -867,10 +879,10 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -895,7 +907,7 @@
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -979,7 +991,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>25</v>
@@ -1017,10 +1029,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>25</v>
@@ -1036,10 +1048,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>35</v>
@@ -1058,7 +1070,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>25</v>
@@ -1079,7 +1091,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>25</v>
@@ -1100,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>25</v>
@@ -1121,10 +1133,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="23">
         <v>8</v>
@@ -1140,7 +1152,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>25</v>
@@ -1238,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1266,20 +1278,31 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
